--- a/Datas/Data_To_Memorial.xlsx
+++ b/Datas/Data_To_Memorial.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Book" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Bookmark" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Accessory" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Room" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Idx</t>
   </si>
@@ -118,6 +119,21 @@
   </si>
   <si>
     <t>악세서리 10</t>
+  </si>
+  <si>
+    <t>카운터</t>
+  </si>
+  <si>
+    <t>서고</t>
+  </si>
+  <si>
+    <t>정원</t>
+  </si>
+  <si>
+    <t>서재</t>
+  </si>
+  <si>
+    <t>피아노방</t>
   </si>
 </sst>
 </file>
@@ -181,6 +197,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -726,4 +746,67 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Datas/Data_To_Memorial.xlsx
+++ b/Datas/Data_To_Memorial.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COCONUT\Documents\MemorialRecordProto\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBE57B2-5644-4E1E-AC85-28159B31C3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Book" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Bookmark" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Accessory" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Room" sheetId="4" r:id="rId7"/>
+    <sheet name="Book" sheetId="1" r:id="rId1"/>
+    <sheet name="Bookmark" sheetId="2" r:id="rId2"/>
+    <sheet name="Accessory" sheetId="3" r:id="rId3"/>
+    <sheet name="Room" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -139,20 +148,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m월 d일"/>
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -161,51 +178,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -395,20 +405,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,9 +432,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -430,20 +443,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44907.0</v>
+        <v>44907</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -452,9 +465,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -463,9 +476,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -474,9 +487,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -485,9 +498,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -496,9 +509,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -507,9 +520,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -518,9 +531,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -530,21 +543,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,110 +568,112 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,102 +681,106 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,47 +788,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datas/Data_To_Memorial.xlsx
+++ b/Datas/Data_To_Memorial.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COCONUT\Documents\MemorialRecordProto\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1653B1-D404-4675-A952-634F64570B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Book" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Bookmark" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Accessory" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Room" sheetId="4" r:id="rId7"/>
+    <sheet name="Book" sheetId="1" r:id="rId1"/>
+    <sheet name="Bookmark" sheetId="2" r:id="rId2"/>
+    <sheet name="Accessory" sheetId="3" r:id="rId3"/>
+    <sheet name="Room" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhuar+SJZMdvggp9CtHH/6e7WIIUA=="/>
@@ -30,94 +39,48 @@
     <t>Writer</t>
   </si>
   <si>
-    <t>햇빛(노란색)이 들어오는 창가(화려한)
- (붉은 벽)</t>
-  </si>
-  <si>
     <t>누군가를 기다리는 여인</t>
   </si>
   <si>
-    <t>푸른색 똬리를 튼 뱀</t>
-  </si>
-  <si>
     <t>버스장에 서있는 청년</t>
   </si>
   <si>
-    <t>막대기 짚은 나그네의 뒷모습</t>
-  </si>
-  <si>
     <t>정처없이 떠도는 나그네</t>
   </si>
   <si>
-    <t>뻐꾸기</t>
-  </si>
-  <si>
     <t>뻐꾸기를 품은 소녀</t>
   </si>
   <si>
-    <t>내 인스타 프사 느낌(글계)</t>
-  </si>
-  <si>
     <t>무명 작가</t>
   </si>
   <si>
-    <t>이불덮고 잠자는 아이</t>
-  </si>
-  <si>
     <t>꿈을 연구하는 정신의학자</t>
   </si>
   <si>
-    <t>떨어져서 피처럼 퍼져있는 장미꽃</t>
-  </si>
-  <si>
     <t>사랑을 착각한 남자</t>
   </si>
   <si>
-    <t>길 앞에서 서성이는 소년</t>
-  </si>
-  <si>
     <t>머뭇거리는 소년</t>
   </si>
   <si>
-    <t>라일락</t>
-  </si>
-  <si>
     <t>꽃을 사랑하는 꽃집주인</t>
   </si>
   <si>
-    <t>흩날리는 눈보라</t>
-  </si>
-  <si>
     <t>설산을 오르는 등산가</t>
   </si>
   <si>
-    <t>잠자리채</t>
-  </si>
-  <si>
     <t>빙빙, 주변을 멤도는 잠자리</t>
   </si>
   <si>
-    <t>학사모 던지는 고등학생들(교복)</t>
-  </si>
-  <si>
     <t>졸업을 기다리는 고등학생</t>
   </si>
   <si>
-    <t>늑대</t>
-  </si>
-  <si>
     <t>늑대를 연구하는 동물학자</t>
   </si>
   <si>
-    <t>바이올린</t>
-  </si>
-  <si>
     <t>시를 좋아하는 음악가</t>
   </si>
   <si>
-    <t>커피잔을 닦는 카페 주인</t>
-  </si>
-  <si>
     <t>어느 카페의 신사</t>
   </si>
   <si>
@@ -224,39 +187,135 @@
   </si>
   <si>
     <t>피아노방</t>
+  </si>
+  <si>
+    <t>다정함이 어린 창가에</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱀</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>인연</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>정적기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신도 할 수 있다! 하루 5분 스토리 특강!</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>백일몽</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭만의 비극</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 회고</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>리라꽃</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울은 사람을 가리지 않고 찾아옵니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙빙, 주변을 멤도는 잠자리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>방학식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대왕</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>사랑의 꿈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -264,56 +323,91 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -503,23 +597,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,189 +629,189 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1682,149 +1781,151 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -2812,149 +2913,151 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -3942,81 +4045,83 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5002,6 +5107,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>